--- a/test-output.xlsx
+++ b/test-output.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="TEST 1" r:id="rId3" sheetId="1"/>
+    <sheet name="TEST 2" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
   <si>
     <t>TestName</t>
   </si>
@@ -32,10 +33,10 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>testAllDates[1.0,1994-1-1,Official exchange rate,3.0]</t>
-  </si>
-  <si>
-    <t>testInputs[1.0,1994-1-1,Official exchange rate,3.0]</t>
+    <t>testAllDates[1.0,2016-5-5,Official exchange rate,3.0]</t>
+  </si>
+  <si>
+    <t>testInputs[1.0,2016-5-5,Official exchange rate,3.0]</t>
   </si>
   <si>
     <t>FAILED</t>
@@ -71,10 +72,10 @@
     <t>testInputs[1.0,-45302.0,akdwpkpf,1.0]</t>
   </si>
   <si>
-    <t>testInputs[,03.02.2014,Official exchange rate,2.0]</t>
-  </si>
-  <si>
-    <t>testInputs[,07.07.2000,Official exchange rate,2.0]</t>
+    <t>testInputs[1.0E7,03.02.2014,Official exchange rate,2.0]</t>
+  </si>
+  <si>
+    <t>testInputs[1010101.0,07.07.2000,Official exchange rate,2.0]</t>
   </si>
   <si>
     <t>testInputs[1.0,12.77.2010,Official exchange rate,1.0]</t>
@@ -128,6 +129,189 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="54.83203125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.8125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.41796875" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
     <col min="1" max="1" width="54.83203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="7.8125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.41796875" customWidth="true" bestFit="true"/>
